--- a/ratings.xlsx
+++ b/ratings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/collnell/Dropbox/rstats/hotsauce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DE4C57-169A-8B42-A920-133F0D2DB044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E94282-8B33-F845-ACEB-D8ED8AD773B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37960" yWindow="-7180" windowWidth="31080" windowHeight="21100" xr2:uid="{F08E80BF-DB9D-1042-8102-27104B0466FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="220">
   <si>
     <t>NAME</t>
   </si>
@@ -338,9 +338,6 @@
     <t>Extra hot</t>
   </si>
   <si>
-    <t>Valentino</t>
-  </si>
-  <si>
     <t>Guadalahara, MX</t>
   </si>
   <si>
@@ -353,9 +350,6 @@
     <t>Washington, DC</t>
   </si>
   <si>
-    <t>thai, jalepeno</t>
-  </si>
-  <si>
     <t>Can we still be friends?</t>
   </si>
   <si>
@@ -389,9 +383,6 @@
     <t>Dynasty</t>
   </si>
   <si>
-    <t>thai red chili</t>
-  </si>
-  <si>
     <t>soybeans</t>
   </si>
   <si>
@@ -410,9 +401,6 @@
     <t>oil</t>
   </si>
   <si>
-    <t>yellow pepper</t>
-  </si>
-  <si>
     <t>Three pepper lemon</t>
   </si>
   <si>
@@ -443,9 +431,6 @@
     <t>Sriracha</t>
   </si>
   <si>
-    <t>Huy Fond Foods</t>
-  </si>
-  <si>
     <t>Crispy chili oil</t>
   </si>
   <si>
@@ -458,9 +443,6 @@
     <t>sambal oelek</t>
   </si>
   <si>
-    <t>huy Fond Foods</t>
-  </si>
-  <si>
     <t>Hot chili oil</t>
   </si>
   <si>
@@ -642,6 +624,75 @@
   </si>
   <si>
     <t>South Korea</t>
+  </si>
+  <si>
+    <t>guero, jalepeno, serrano, thai chili</t>
+  </si>
+  <si>
+    <t>cayenne</t>
+  </si>
+  <si>
+    <t>Valentina</t>
+  </si>
+  <si>
+    <t>puya chili</t>
+  </si>
+  <si>
+    <t>thai, jalepeno, cayenne</t>
+  </si>
+  <si>
+    <t>thai chili</t>
+  </si>
+  <si>
+    <t>scotch bonnet</t>
+  </si>
+  <si>
+    <t>tabasco</t>
+  </si>
+  <si>
+    <t>sichuan</t>
+  </si>
+  <si>
+    <t>red chili</t>
+  </si>
+  <si>
+    <t>Snake Oil</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>Woodberry pantry</t>
+  </si>
+  <si>
+    <t>Baltimore, MD</t>
+  </si>
+  <si>
+    <t>Tabasco</t>
+  </si>
+  <si>
+    <t>McIlhenny Company</t>
+  </si>
+  <si>
+    <t>Avery Island, Louisiana</t>
+  </si>
+  <si>
+    <t>Huy Fong</t>
+  </si>
+  <si>
+    <t>Garlic PERi-PERi</t>
+  </si>
+  <si>
+    <t>Nando's</t>
+  </si>
+  <si>
+    <t>Johannesburg, South Africa</t>
+  </si>
+  <si>
+    <t>garlic</t>
+  </si>
+  <si>
+    <t>XX Hot PERi-PERi</t>
   </si>
 </sst>
 </file>
@@ -1002,18 +1053,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F768B-B78A-7C4A-99A7-FC7B2FFBCC13}">
-  <dimension ref="A1:AK47"/>
+  <dimension ref="A1:AK51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="7" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
     <col min="8" max="23" width="4.1640625" customWidth="1"/>
     <col min="24" max="24" width="3.5" customWidth="1"/>
     <col min="25" max="35" width="7.6640625" customWidth="1"/>
@@ -1094,43 +1147,43 @@
         <v>51</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
@@ -1149,6 +1202,9 @@
       <c r="E2">
         <v>2.8</v>
       </c>
+      <c r="F2" t="s">
+        <v>197</v>
+      </c>
       <c r="H2">
         <v>1</v>
       </c>
@@ -1198,43 +1254,43 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AE2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
@@ -1308,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AD3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AE3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AJ3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
@@ -1415,43 +1471,43 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AE4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AG4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
@@ -1525,43 +1581,43 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AE5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AJ5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
@@ -1569,7 +1625,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -1581,7 +1637,7 @@
         <v>2.8</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -1635,43 +1691,43 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
@@ -1745,43 +1801,43 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AG7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
@@ -1855,43 +1911,43 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AJ8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
@@ -1965,43 +2021,43 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
@@ -2021,7 +2077,7 @@
         <v>2.6</v>
       </c>
       <c r="F10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G10" t="s">
         <v>37</v>
@@ -2075,43 +2131,43 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AD10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AH10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
@@ -2182,43 +2238,43 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z11" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB11" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AD11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AH11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
@@ -2292,43 +2348,43 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AE12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AG12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AJ12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
@@ -2347,6 +2403,9 @@
       <c r="E13">
         <v>0.5</v>
       </c>
+      <c r="F13" t="s">
+        <v>198</v>
+      </c>
       <c r="G13" t="s">
         <v>71</v>
       </c>
@@ -2399,43 +2458,43 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Z13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA13" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB13" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AE13" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AG13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH13" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AJ13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
@@ -2458,7 +2517,7 @@
         <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -2509,43 +2568,43 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AD14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AH14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
@@ -2619,43 +2678,43 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Z15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA15" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB15" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AE15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AG15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI15" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
@@ -2729,43 +2788,43 @@
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC16" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AD16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AE16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF16" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AJ16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
@@ -2836,43 +2895,43 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z17" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA17" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB17" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC17" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AD17" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE17" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AH17" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI17" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ17" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK17" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -2946,43 +3005,43 @@
         <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC18" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH18" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.2">
@@ -2990,10 +3049,10 @@
         <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -3001,6 +3060,9 @@
       <c r="E19">
         <v>1.5</v>
       </c>
+      <c r="F19" t="s">
+        <v>198</v>
+      </c>
       <c r="H19">
         <v>1</v>
       </c>
@@ -3050,54 +3112,54 @@
         <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC19" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AH19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -3105,6 +3167,9 @@
       <c r="E20">
         <v>1.5</v>
       </c>
+      <c r="F20" t="s">
+        <v>198</v>
+      </c>
       <c r="H20">
         <v>1</v>
       </c>
@@ -3154,43 +3219,43 @@
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC20" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AH20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.2">
@@ -3261,43 +3326,43 @@
         <v>0</v>
       </c>
       <c r="Y21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AE21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AG21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AH21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AJ21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.2">
@@ -3308,7 +3373,7 @@
         <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D22">
         <v>3.9</v>
@@ -3371,43 +3436,43 @@
         <v>0</v>
       </c>
       <c r="Y22" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z22" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA22" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB22" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC22" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AD22" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE22" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF22" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG22" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH22" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI22" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ22" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK22" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.2">
@@ -3418,7 +3483,7 @@
         <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -3481,43 +3546,43 @@
         <v>0</v>
       </c>
       <c r="Y23" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z23" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA23" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB23" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC23" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD23" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE23" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF23" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG23" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH23" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI23" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AJ23" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK23" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.2">
@@ -3525,10 +3590,10 @@
         <v>100</v>
       </c>
       <c r="B24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" t="s">
         <v>101</v>
-      </c>
-      <c r="C24" t="s">
-        <v>102</v>
       </c>
       <c r="D24">
         <v>3.3</v>
@@ -3536,6 +3601,9 @@
       <c r="E24">
         <v>2.7</v>
       </c>
+      <c r="F24" t="s">
+        <v>200</v>
+      </c>
       <c r="H24">
         <v>3</v>
       </c>
@@ -3584,55 +3652,58 @@
       <c r="W24">
         <v>0</v>
       </c>
+      <c r="X24">
+        <v>2100</v>
+      </c>
       <c r="Y24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z24" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AD24" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AE24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF24" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AG24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AH24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
         <v>103</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>104</v>
-      </c>
-      <c r="C25" t="s">
-        <v>105</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -3641,7 +3712,7 @@
         <v>3.5</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -3692,54 +3763,54 @@
         <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC25" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE25" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG25" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
         <v>107</v>
-      </c>
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" t="s">
-        <v>109</v>
       </c>
       <c r="D26">
         <v>3.6</v>
@@ -3751,7 +3822,7 @@
         <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -3802,54 +3873,54 @@
         <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z26" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA26" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB26" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC26" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD26" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AE26" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF26" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG26" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH26" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI26" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ26" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK26" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
         <v>111</v>
-      </c>
-      <c r="B27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" t="s">
-        <v>113</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -3858,10 +3929,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -3912,54 +3983,54 @@
         <v>0</v>
       </c>
       <c r="Y27" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z27" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA27" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB27" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC27" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD27" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE27" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF27" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG27" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH27" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI27" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AJ27" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK27" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D28">
         <v>4.5</v>
@@ -3968,10 +4039,10 @@
         <v>3.5</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="G28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -4022,54 +4093,54 @@
         <v>0</v>
       </c>
       <c r="Y28" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z28" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA28" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB28" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC28" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD28" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE28" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF28" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG28" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH28" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI28" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ28" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK28" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D29">
         <v>3.8</v>
@@ -4132,54 +4203,54 @@
         <v>0</v>
       </c>
       <c r="Y29" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z29" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA29" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB29" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC29" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AD29" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE29" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF29" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG29" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH29" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI29" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ29" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK29" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -4188,10 +4259,10 @@
         <v>8.5</v>
       </c>
       <c r="F30" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="G30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H30">
         <v>5</v>
@@ -4242,54 +4313,54 @@
         <v>0</v>
       </c>
       <c r="Y30" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z30" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA30" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB30" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC30" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD30" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE30" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF30" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG30" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH30" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI30" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ30" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK30" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D31">
         <v>3.5</v>
@@ -4297,6 +4368,9 @@
       <c r="E31">
         <v>2</v>
       </c>
+      <c r="F31" t="s">
+        <v>204</v>
+      </c>
       <c r="H31">
         <v>0</v>
       </c>
@@ -4346,54 +4420,54 @@
         <v>0</v>
       </c>
       <c r="Y31" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Z31" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA31" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB31" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC31" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD31" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE31" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF31" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG31" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH31" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI31" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ31" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK31" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D32">
         <v>3.5</v>
@@ -4453,54 +4527,54 @@
         <v>0</v>
       </c>
       <c r="Y32" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z32" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA32" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB32" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC32" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AD32" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE32" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF32" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG32" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH32" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI32" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ32" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK32" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D33">
         <v>4.5</v>
@@ -4512,7 +4586,7 @@
         <v>90</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -4563,54 +4637,54 @@
         <v>0</v>
       </c>
       <c r="Y33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z33" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA33" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB33" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AD33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF33" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AG33" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ33" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -4618,6 +4692,9 @@
       <c r="E34">
         <v>2.5</v>
       </c>
+      <c r="F34" t="s">
+        <v>90</v>
+      </c>
       <c r="H34">
         <v>1</v>
       </c>
@@ -4667,54 +4744,54 @@
         <v>0</v>
       </c>
       <c r="Y34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AD34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AH34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D35">
         <v>4.2</v>
@@ -4722,8 +4799,11 @@
       <c r="E35">
         <v>1.5</v>
       </c>
+      <c r="F35" t="s">
+        <v>205</v>
+      </c>
       <c r="G35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -4774,54 +4854,54 @@
         <v>0</v>
       </c>
       <c r="Y35" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Z35" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA35" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB35" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC35" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD35" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE35" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF35" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG35" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH35" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI35" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AJ35" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK35" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="C36" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -4829,6 +4909,9 @@
       <c r="E36">
         <v>4.2</v>
       </c>
+      <c r="F36" t="s">
+        <v>206</v>
+      </c>
       <c r="H36">
         <v>2</v>
       </c>
@@ -4878,54 +4961,54 @@
         <v>0</v>
       </c>
       <c r="Y36" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z36" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA36" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB36" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC36" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD36" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE36" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF36" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG36" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH36" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI36" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ36" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK36" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -4933,8 +5016,11 @@
       <c r="E37">
         <v>4.5</v>
       </c>
+      <c r="F37" t="s">
+        <v>206</v>
+      </c>
       <c r="G37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -4985,54 +5071,54 @@
         <v>0</v>
       </c>
       <c r="Y37" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Z37" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA37" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB37" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC37" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD37" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE37" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF37" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG37" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH37" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI37" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ37" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK37" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D38">
         <v>2.7</v>
@@ -5092,60 +5178,63 @@
         <v>0</v>
       </c>
       <c r="Y38" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z38" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA38" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB38" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC38" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD38" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AE38" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF38" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG38" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH38" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI38" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AJ38" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK38" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39">
         <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>206</v>
       </c>
       <c r="G39" t="s">
         <v>50</v>
@@ -5199,54 +5288,54 @@
         <v>0</v>
       </c>
       <c r="Y39" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z39" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA39" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB39" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC39" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD39" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE39" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF39" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG39" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH39" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI39" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ39" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK39" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D40">
         <v>3.9</v>
@@ -5255,7 +5344,7 @@
         <v>3.5</v>
       </c>
       <c r="G40" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -5306,54 +5395,54 @@
         <v>0</v>
       </c>
       <c r="Y40" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z40" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA40" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB40" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC40" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD40" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AE40" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF40" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG40" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH40" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI40" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AJ40" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK40" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D41">
         <v>3.5</v>
@@ -5410,54 +5499,54 @@
         <v>0</v>
       </c>
       <c r="Y41" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z41" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA41" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB41" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC41" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD41" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE41" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF41" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG41" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH41" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI41" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ41" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK41" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -5466,7 +5555,7 @@
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -5517,54 +5606,54 @@
         <v>0</v>
       </c>
       <c r="Y42" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Z42" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA42" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB42" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC42" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD42" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AE42" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF42" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG42" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH42" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI42" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AJ42" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK42" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D43">
         <v>4.2</v>
@@ -5573,7 +5662,7 @@
         <v>3.6</v>
       </c>
       <c r="F43" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -5624,54 +5713,54 @@
         <v>0</v>
       </c>
       <c r="Y43" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z43" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA43" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB43" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AC43" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AD43" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AE43" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF43" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AG43" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH43" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI43" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ43" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK43" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D44">
         <v>4.5</v>
@@ -5679,8 +5768,11 @@
       <c r="E44">
         <v>2</v>
       </c>
+      <c r="F44" t="s">
+        <v>202</v>
+      </c>
       <c r="G44" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -5731,51 +5823,51 @@
         <v>0</v>
       </c>
       <c r="Y44" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Z44" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA44" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB44" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC44" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD44" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AE44" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF44" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AG44" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH44" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI44" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AJ44" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK44" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
         <v>70</v>
@@ -5786,6 +5878,9 @@
       <c r="E45">
         <v>5</v>
       </c>
+      <c r="F45" t="s">
+        <v>63</v>
+      </c>
       <c r="H45">
         <v>4</v>
       </c>
@@ -5835,54 +5930,54 @@
         <v>0</v>
       </c>
       <c r="Y45" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z45" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA45" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB45" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC45" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD45" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AE45" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF45" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AG45" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH45" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI45" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ45" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK45" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -5894,7 +5989,7 @@
         <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H46">
         <v>5</v>
@@ -5945,54 +6040,54 @@
         <v>0</v>
       </c>
       <c r="Y46" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z46" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA46" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AB46" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC46" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD46" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AE46" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF46" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AG46" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH46" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AI46" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AJ46" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK46" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D47">
         <v>3.8</v>
@@ -6001,7 +6096,7 @@
         <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -6052,43 +6147,387 @@
         <v>0</v>
       </c>
       <c r="Y47" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z47" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AA47" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AB47" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AC47" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AD47" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE47" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF47" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AG47" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH47" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AI47" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AJ47" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK47" t="s">
-        <v>197</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E48">
+        <v>3.5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>208</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <v>3</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>4</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>2.5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>204</v>
+      </c>
+      <c r="G49" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>3</v>
+      </c>
+      <c r="R49">
+        <v>4</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50">
+        <v>4.5</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>218</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>2</v>
+      </c>
+      <c r="P50">
+        <v>5</v>
+      </c>
+      <c r="Q50">
+        <v>3</v>
+      </c>
+      <c r="R50">
+        <v>3</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>4</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" t="s">
+        <v>217</v>
+      </c>
+      <c r="D51">
+        <v>3.8</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/ratings.xlsx
+++ b/ratings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/collnell/Dropbox/rstats/hotsauce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E94282-8B33-F845-ACEB-D8ED8AD773B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFC96AB-9B21-6E4A-9D5F-9A74E77CCB8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37960" yWindow="-7180" windowWidth="31080" windowHeight="21100" xr2:uid="{F08E80BF-DB9D-1042-8102-27104B0466FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="225">
   <si>
     <t>NAME</t>
   </si>
@@ -566,9 +566,6 @@
     <t>Caribbean habanero</t>
   </si>
   <si>
-    <t>Go chu jang hot pepper paste</t>
-  </si>
-  <si>
     <t>Wang Korea</t>
   </si>
   <si>
@@ -638,9 +635,6 @@
     <t>puya chili</t>
   </si>
   <si>
-    <t>thai, jalepeno, cayenne</t>
-  </si>
-  <si>
     <t>thai chili</t>
   </si>
   <si>
@@ -693,6 +687,27 @@
   </si>
   <si>
     <t>XX Hot PERi-PERi</t>
+  </si>
+  <si>
+    <t>jalepeno, serrano</t>
+  </si>
+  <si>
+    <t>thai, jalepeno, cayenne, serrano</t>
+  </si>
+  <si>
+    <t>thai</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>habanero, serrano</t>
+  </si>
+  <si>
+    <t>Gochujang</t>
+  </si>
+  <si>
+    <t>red, thai</t>
   </si>
 </sst>
 </file>
@@ -1056,8 +1071,8 @@
   <dimension ref="A1:AK51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1147,43 +1162,43 @@
         <v>51</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="AJ1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
@@ -1203,7 +1218,7 @@
         <v>2.8</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1254,43 +1269,43 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
@@ -1364,43 +1379,43 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
@@ -1471,43 +1486,43 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
@@ -1581,43 +1596,43 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
@@ -1691,43 +1706,43 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
@@ -1801,43 +1816,43 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
@@ -1851,10 +1866,10 @@
         <v>48</v>
       </c>
       <c r="D8">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -1911,43 +1926,43 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
@@ -2021,43 +2036,43 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
@@ -2131,43 +2146,43 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
@@ -2238,43 +2253,43 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
@@ -2348,43 +2363,43 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
@@ -2404,7 +2419,7 @@
         <v>0.5</v>
       </c>
       <c r="F13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G13" t="s">
         <v>71</v>
@@ -2458,43 +2473,43 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
@@ -2568,43 +2583,43 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
@@ -2678,43 +2693,43 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
@@ -2788,43 +2803,43 @@
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
@@ -2895,43 +2910,43 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -3005,43 +3020,43 @@
         <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.2">
@@ -3061,7 +3076,7 @@
         <v>1.5</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -3112,43 +3127,43 @@
         <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.2">
@@ -3168,7 +3183,7 @@
         <v>1.5</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -3219,43 +3234,43 @@
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.2">
@@ -3326,43 +3341,43 @@
         <v>0</v>
       </c>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.2">
@@ -3382,7 +3397,7 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
         <v>96</v>
@@ -3436,43 +3451,43 @@
         <v>0</v>
       </c>
       <c r="Y22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.2">
@@ -3546,43 +3561,43 @@
         <v>0</v>
       </c>
       <c r="Y23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.2">
@@ -3590,7 +3605,7 @@
         <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C24" t="s">
         <v>101</v>
@@ -3602,7 +3617,7 @@
         <v>2.7</v>
       </c>
       <c r="F24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -3656,43 +3671,43 @@
         <v>2100</v>
       </c>
       <c r="Y24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.2">
@@ -3712,7 +3727,7 @@
         <v>3.5</v>
       </c>
       <c r="F25" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -3763,43 +3778,43 @@
         <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.2">
@@ -3873,43 +3888,43 @@
         <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.2">
@@ -3983,43 +3998,43 @@
         <v>0</v>
       </c>
       <c r="Y27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.2">
@@ -4039,7 +4054,7 @@
         <v>3.5</v>
       </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="G28" t="s">
         <v>116</v>
@@ -4093,43 +4108,43 @@
         <v>0</v>
       </c>
       <c r="Y28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.2">
@@ -4203,43 +4218,43 @@
         <v>0</v>
       </c>
       <c r="Y29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.2">
@@ -4259,7 +4274,7 @@
         <v>8.5</v>
       </c>
       <c r="F30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G30" t="s">
         <v>121</v>
@@ -4313,43 +4328,43 @@
         <v>0</v>
       </c>
       <c r="Y30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.2">
@@ -4369,7 +4384,7 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -4420,43 +4435,43 @@
         <v>0</v>
       </c>
       <c r="Y31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.2">
@@ -4476,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -4527,43 +4542,43 @@
         <v>0</v>
       </c>
       <c r="Y32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.2">
@@ -4583,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="G33" t="s">
         <v>130</v>
@@ -4637,43 +4652,43 @@
         <v>0</v>
       </c>
       <c r="Y33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.2">
@@ -4681,7 +4696,7 @@
         <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C34" t="s">
         <v>160</v>
@@ -4744,43 +4759,43 @@
         <v>0</v>
       </c>
       <c r="Y34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.2">
@@ -4800,7 +4815,7 @@
         <v>1.5</v>
       </c>
       <c r="F35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G35" t="s">
         <v>121</v>
@@ -4854,43 +4869,43 @@
         <v>0</v>
       </c>
       <c r="Y35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.2">
@@ -4898,10 +4913,10 @@
         <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -4910,7 +4925,7 @@
         <v>4.2</v>
       </c>
       <c r="F36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -4961,43 +4976,43 @@
         <v>0</v>
       </c>
       <c r="Y36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.2">
@@ -5017,7 +5032,7 @@
         <v>4.5</v>
       </c>
       <c r="F37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G37" t="s">
         <v>121</v>
@@ -5071,43 +5086,43 @@
         <v>0</v>
       </c>
       <c r="Y37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.2">
@@ -5126,6 +5141,9 @@
       <c r="E38">
         <v>1.8</v>
       </c>
+      <c r="F38" t="s">
+        <v>221</v>
+      </c>
       <c r="G38" t="s">
         <v>71</v>
       </c>
@@ -5178,43 +5196,43 @@
         <v>0</v>
       </c>
       <c r="Y38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.2">
@@ -5234,7 +5252,7 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G39" t="s">
         <v>50</v>
@@ -5288,43 +5306,43 @@
         <v>0</v>
       </c>
       <c r="Y39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.2">
@@ -5395,43 +5413,43 @@
         <v>0</v>
       </c>
       <c r="Y40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.2">
@@ -5450,6 +5468,9 @@
       <c r="E41">
         <v>3.2</v>
       </c>
+      <c r="F41" t="s">
+        <v>221</v>
+      </c>
       <c r="H41">
         <v>0</v>
       </c>
@@ -5499,43 +5520,43 @@
         <v>0</v>
       </c>
       <c r="Y41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.2">
@@ -5606,43 +5627,43 @@
         <v>0</v>
       </c>
       <c r="Y42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.2">
@@ -5713,43 +5734,43 @@
         <v>0</v>
       </c>
       <c r="Y43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.2">
@@ -5769,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G44" t="s">
         <v>161</v>
@@ -5823,43 +5844,43 @@
         <v>0</v>
       </c>
       <c r="Y44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.2">
@@ -5930,43 +5951,43 @@
         <v>0</v>
       </c>
       <c r="Y45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.2">
@@ -6040,54 +6061,54 @@
         <v>0</v>
       </c>
       <c r="Y46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" t="s">
         <v>177</v>
       </c>
-      <c r="B47" t="s">
-        <v>178</v>
-      </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D47">
         <v>3.8</v>
@@ -6096,7 +6117,7 @@
         <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -6147,54 +6168,54 @@
         <v>0</v>
       </c>
       <c r="Y47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48" t="s">
         <v>207</v>
       </c>
-      <c r="B48" t="s">
-        <v>209</v>
-      </c>
       <c r="C48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D48">
         <v>4.4000000000000004</v>
@@ -6203,7 +6224,7 @@
         <v>3.5</v>
       </c>
       <c r="F48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -6254,54 +6275,54 @@
         <v>0</v>
       </c>
       <c r="Y48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>209</v>
+      </c>
+      <c r="B49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" t="s">
         <v>211</v>
-      </c>
-      <c r="B49" t="s">
-        <v>212</v>
-      </c>
-      <c r="C49" t="s">
-        <v>213</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -6310,7 +6331,7 @@
         <v>2.5</v>
       </c>
       <c r="F49" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G49" t="s">
         <v>53</v>
@@ -6367,54 +6388,54 @@
         <v>0</v>
       </c>
       <c r="Y49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" t="s">
         <v>215</v>
-      </c>
-      <c r="B50" t="s">
-        <v>216</v>
-      </c>
-      <c r="C50" t="s">
-        <v>217</v>
       </c>
       <c r="D50">
         <v>4.5</v>
@@ -6422,8 +6443,11 @@
       <c r="E50">
         <v>3</v>
       </c>
+      <c r="F50" t="s">
+        <v>224</v>
+      </c>
       <c r="G50" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -6474,60 +6498,63 @@
         <v>0</v>
       </c>
       <c r="Y50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C51" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D51">
         <v>3.8</v>
       </c>
       <c r="E51">
         <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
